--- a/docment/テスト項目関連/win7_chrome55.xlsx
+++ b/docment/テスト項目関連/win7_chrome55.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="396" windowWidth="22056" windowHeight="8664" tabRatio="603" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="396" windowWidth="22056" windowHeight="8664" tabRatio="603" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="25" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="164">
   <si>
     <t>確認項目</t>
     <rPh sb="0" eb="2">
@@ -2386,7 +2386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2472,9 +2472,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2482,9 +2479,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2538,216 +2532,213 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2759,9 +2750,6 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3079,16 +3067,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="77" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3349,28 +3337,28 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="69" t="s">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="74" t="s">
         <v>21</v>
       </c>
       <c r="M2" t="s">
@@ -3378,33 +3366,33 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
       <c r="M3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
       <c r="I4" s="19"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -3412,15 +3400,15 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
       <c r="I5" s="15"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6"/>
@@ -3428,63 +3416,63 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="51"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="2"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="38"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="2"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="34"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="2"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="15"/>
       <c r="J9" s="2"/>
       <c r="K9" s="6"/>
@@ -3492,51 +3480,51 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="33"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="2"/>
       <c r="K10" s="6"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="50"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="105" t="s">
+      <c r="B13" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="54" t="s">
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="50" t="s">
         <v>64</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -3550,421 +3538,442 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="72"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="55"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="51"/>
       <c r="J14" s="4"/>
       <c r="K14" s="6"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="57"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="53"/>
       <c r="J15" s="2"/>
       <c r="K15" s="6"/>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="66"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="62"/>
       <c r="J16" s="2"/>
       <c r="K16" s="6"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="66"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="2"/>
       <c r="K17" s="6"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="66"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="2"/>
       <c r="K18" s="6"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="66"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="62"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="66"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="62"/>
       <c r="J20" s="2"/>
       <c r="K20" s="6"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="66"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="62"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="66"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="62"/>
       <c r="J22" s="2"/>
       <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="66"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="66"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="71"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="67"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="71"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="60"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="66"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="62"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
       <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="66"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="62"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="66"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="62"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
       <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="66"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="62"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
       <c r="L31" s="9"/>
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="66"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="66"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="62"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="66"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="66"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="62"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="66"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="62"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="104" t="s">
+      <c r="B37" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="66"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="62"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="66"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="62"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="66"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="62"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
       <c r="L39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B3:H3"/>
@@ -3981,27 +3990,6 @@
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -4031,28 +4019,28 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="69" t="s">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="74" t="s">
         <v>21</v>
       </c>
       <c r="M2" t="s">
@@ -4060,33 +4048,33 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
       <c r="M3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
       <c r="I4" s="26"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -4094,63 +4082,63 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="52"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="52"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="52"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
       <c r="I8" s="11"/>
       <c r="J8" s="2"/>
       <c r="K8" s="6"/>
@@ -4158,15 +4146,15 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="11"/>
       <c r="J9" s="2"/>
       <c r="K9" s="6"/>
@@ -4174,31 +4162,31 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="39"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="2"/>
       <c r="K10" s="6"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
       <c r="I11" s="11"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
@@ -4206,31 +4194,31 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="39"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="2"/>
       <c r="K12" s="6"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
       <c r="I13" s="11"/>
       <c r="J13" s="2"/>
       <c r="K13" s="6"/>
@@ -4238,51 +4226,51 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="33"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="2"/>
       <c r="K14" s="6"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="33"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="2"/>
       <c r="K15" s="6"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="54" t="s">
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="50" t="s">
         <v>64</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -4296,421 +4284,446 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="72"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="55"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="51"/>
       <c r="J18" s="4"/>
       <c r="K18" s="6"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="57"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="53"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="66"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="62"/>
       <c r="J20" s="2"/>
       <c r="K20" s="6"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="66"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="62"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="66"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="62"/>
       <c r="J22" s="2"/>
       <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="66"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="66"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="66"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="62"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="66"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="62"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="66"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="62"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="66"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="62"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="71"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="67"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="71"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="60"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="56"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="66"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="66"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="62"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="66"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="66"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="62"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="66"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="62"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="104" t="s">
+      <c r="B37" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="66"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="62"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="66"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="62"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="66"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="62"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="104" t="s">
+      <c r="B40" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="66"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="62"/>
       <c r="J40" s="2"/>
       <c r="K40" s="6"/>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="104" t="s">
+      <c r="B41" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="66"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="62"/>
       <c r="J41" s="2"/>
       <c r="K41" s="6"/>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="66"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="62"/>
       <c r="J42" s="2"/>
       <c r="K42" s="6"/>
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="104" t="s">
+      <c r="B43" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="66"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="62"/>
       <c r="J43" s="2"/>
       <c r="K43" s="6"/>
       <c r="L43" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B42:H42"/>
@@ -4727,31 +4740,6 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -4769,8 +4757,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4783,16 +4771,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
       <c r="I2" s="18" t="s">
         <v>66</v>
       </c>
@@ -4807,14 +4795,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="72"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -4824,16 +4812,16 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
       <c r="I4" s="20"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -4844,16 +4832,16 @@
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="82">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="78">
         <v>42754</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -4864,16 +4852,16 @@
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="82">
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="78">
         <v>42754</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -4884,15 +4872,15 @@
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="93"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="17"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -4900,15 +4888,15 @@
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="93"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="13"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -4916,16 +4904,16 @@
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="82">
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="78">
         <v>42754</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -4936,15 +4924,15 @@
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="82"/>
       <c r="I10" s="17"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -4952,16 +4940,16 @@
     </row>
     <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="82">
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="78">
         <v>42754</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -4974,15 +4962,15 @@
     </row>
     <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="93"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="82"/>
       <c r="I12" s="17"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -4991,30 +4979,30 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="72"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
       <c r="I13" s="16"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
       <c r="I14" s="14"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -5022,15 +5010,15 @@
     </row>
     <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="93"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="82"/>
       <c r="I15" s="17"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -5038,15 +5026,15 @@
     </row>
     <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="93"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="17"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -5054,15 +5042,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="93"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="82"/>
       <c r="I17" s="24"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -5070,45 +5058,45 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="93"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="82"/>
       <c r="I18" s="17"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="72"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
       <c r="I19" s="16"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
       <c r="I20" s="14"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -5116,31 +5104,31 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="30"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="93"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="82"/>
       <c r="I22" s="17"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -5148,93 +5136,93 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="28"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="28"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="27"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="28"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="27"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="85"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
       <c r="I26" s="15"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A27" s="80"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
       <c r="I27" s="11"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
       <c r="I28" s="14"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -5242,15 +5230,15 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="93"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
       <c r="I29" s="17"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -5258,15 +5246,15 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="93"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="24"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -5274,15 +5262,15 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="93"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="82"/>
       <c r="I31" s="17"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -5290,43 +5278,49 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="30"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="29"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="30"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B18:H18"/>
@@ -5343,17 +5337,11 @@
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5381,16 +5369,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
       <c r="I2" s="18" t="s">
         <v>66</v>
       </c>
@@ -5405,14 +5393,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="72"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="98"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -5422,16 +5410,16 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="103"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="20"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -5442,112 +5430,112 @@
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="28"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="28"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="28"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="28"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="28"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="28"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="28"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="2"/>
@@ -5556,45 +5544,45 @@
     </row>
     <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="28"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A13" s="80"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="85"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
       <c r="I13" s="21"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="97"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="96"/>
       <c r="I14" s="14"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -5602,15 +5590,15 @@
     </row>
     <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="93"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="82"/>
       <c r="I15" s="17"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -5618,15 +5606,15 @@
     </row>
     <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="93"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="17"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -5634,15 +5622,15 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="93"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="82"/>
       <c r="I17" s="24"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -5650,45 +5638,45 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="93"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="82"/>
       <c r="I18" s="17"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="72"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="99"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94"/>
       <c r="I19" s="16"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="97"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="96"/>
       <c r="I20" s="14"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -5696,31 +5684,31 @@
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="29"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="28"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="93"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="82"/>
       <c r="I22" s="17"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -5728,47 +5716,47 @@
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="28"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="28"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="27"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="85"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="88"/>
       <c r="I25" s="15"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -5776,45 +5764,45 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="85"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="88"/>
       <c r="I26" s="15"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="72"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="99"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="94"/>
       <c r="I27" s="16"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="97"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="14"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -5822,31 +5810,31 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="29"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="93"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="17"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -5854,47 +5842,47 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="30"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="29"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="30"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="29"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="93"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="82"/>
       <c r="I33" s="17"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -5902,58 +5890,38 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="30"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="29"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="30"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="29"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
     <mergeCell ref="B25:H25"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
@@ -5968,6 +5936,26 @@
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B21:H21"/>
     <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -5998,16 +5986,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="18" t="s">
         <v>64</v>
       </c>
@@ -6025,14 +6013,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="108"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="99"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -6042,16 +6030,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
       <c r="I4" s="26"/>
       <c r="J4" s="2" t="s">
         <v>163</v>
@@ -6060,80 +6048,80 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
       <c r="I5" s="12"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="12"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="93"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="13"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
       <c r="I8" s="12"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="93"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
       <c r="I9" s="23"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -6177,16 +6165,16 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="18" t="s">
         <v>64</v>
       </c>
@@ -6204,14 +6192,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="108"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="99"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -6221,128 +6209,128 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
       <c r="I4" s="26"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="85"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
       <c r="I5" s="26"/>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="85"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
       <c r="I6" s="26"/>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="57"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="57"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="57"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
       <c r="I10" s="12"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
       <c r="I11" s="12"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -6351,16 +6339,16 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
       <c r="I12" s="16"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -6369,16 +6357,16 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="99"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
       <c r="I13" s="19"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -6387,32 +6375,32 @@
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="16"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="94"/>
       <c r="I15" s="19"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -6420,6 +6408,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
@@ -6429,11 +6422,6 @@
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -6465,18 +6453,18 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="18" t="s">
         <v>64</v>
       </c>
@@ -6494,14 +6482,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="72"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="98"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -6511,16 +6499,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="112"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111"/>
       <c r="I4" s="14"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -6528,16 +6516,16 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="82">
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="78">
         <v>42754</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -6548,16 +6536,16 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="82">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="78">
         <v>42754</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -6568,16 +6556,16 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="82">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="78">
         <v>42754</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -6588,16 +6576,16 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="82">
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="78">
         <v>42754</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -6608,16 +6596,16 @@
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="82">
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="78">
         <v>42754</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -6628,16 +6616,16 @@
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="82">
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="78">
         <v>42754</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -6648,16 +6636,16 @@
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="82">
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="78">
         <v>42754</v>
       </c>
       <c r="J11" s="2" t="s">
@@ -6668,16 +6656,16 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="82">
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="78">
         <v>42754</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -6688,16 +6676,16 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="82">
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="78">
         <v>42754</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -6708,16 +6696,16 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="82">
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="78">
         <v>42754</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -6728,16 +6716,16 @@
     </row>
     <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="82">
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="78">
         <v>42754</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -6748,16 +6736,16 @@
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="82">
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="78">
         <v>42754</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -6768,16 +6756,16 @@
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="82">
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="78">
         <v>42754</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -6788,16 +6776,16 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="82">
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="78">
         <v>42754</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -6808,16 +6796,16 @@
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="82">
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="78">
         <v>42754</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -6828,16 +6816,16 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="82">
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="78">
         <v>42754</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -6848,19 +6836,19 @@
     </row>
     <row r="21" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="35" t="s">
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="33" t="s">
         <v>64</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -6874,47 +6862,47 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="72"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="36"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="4"/>
       <c r="K23" s="6"/>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="113"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="37"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="35"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="82">
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="78">
         <v>42754</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -6925,16 +6913,16 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="82">
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="78">
         <v>42754</v>
       </c>
       <c r="J26" s="2" t="s">
@@ -6945,16 +6933,16 @@
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="82">
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="78">
         <v>42754</v>
       </c>
       <c r="J27" s="2" t="s">
@@ -6965,16 +6953,16 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="82">
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="78">
         <v>42754</v>
       </c>
       <c r="J28" s="2" t="s">
@@ -6985,16 +6973,16 @@
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="82">
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="78">
         <v>42754</v>
       </c>
       <c r="J29" s="2" t="s">
@@ -7005,16 +6993,16 @@
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="82">
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="78">
         <v>42754</v>
       </c>
       <c r="J30" s="2" t="s">
@@ -7025,16 +7013,16 @@
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="82">
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="78">
         <v>42754</v>
       </c>
       <c r="J31" s="2" t="s">
@@ -7045,16 +7033,16 @@
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="82">
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="78">
         <v>42754</v>
       </c>
       <c r="J32" s="2" t="s">
@@ -7065,16 +7053,16 @@
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="82">
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="78">
         <v>42754</v>
       </c>
       <c r="J33" s="2" t="s">
@@ -7085,16 +7073,16 @@
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="95" t="s">
+      <c r="B34" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="82">
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="78">
         <v>42754</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -7105,16 +7093,16 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="82">
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="78">
         <v>42754</v>
       </c>
       <c r="J35" s="2" t="s">
@@ -7125,16 +7113,16 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="82">
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="78">
         <v>42754</v>
       </c>
       <c r="J36" s="2" t="s">
@@ -7145,32 +7133,32 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="104" t="s">
+      <c r="B37" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="66"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="62"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
       <c r="L37" s="10"/>
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="82">
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="78">
         <v>42754</v>
       </c>
       <c r="J38" s="2" t="s">
@@ -7181,16 +7169,16 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="82">
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="78">
         <v>42754</v>
       </c>
       <c r="J39" s="2" t="s">
@@ -7201,16 +7189,16 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="104" t="s">
+      <c r="B40" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="82">
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="78">
         <v>42754</v>
       </c>
       <c r="J40" s="2" t="s">
@@ -7221,16 +7209,16 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="104" t="s">
+      <c r="B41" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="82">
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="78">
         <v>42754</v>
       </c>
       <c r="J41" s="2" t="s">
@@ -7241,16 +7229,16 @@
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="82">
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="78">
         <v>42754</v>
       </c>
       <c r="J42" s="2" t="s">
@@ -7261,16 +7249,16 @@
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="104" t="s">
+      <c r="B43" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="82">
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="78">
         <v>42754</v>
       </c>
       <c r="J43" s="2" t="s">
@@ -7281,16 +7269,16 @@
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="104" t="s">
+      <c r="B44" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="82">
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="78">
         <v>42754</v>
       </c>
       <c r="J44" s="2" t="s">
@@ -7301,16 +7289,16 @@
     </row>
     <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
-      <c r="B45" s="104" t="s">
+      <c r="B45" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="104"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="82">
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="78">
         <v>42754</v>
       </c>
       <c r="J45" s="2" t="s">
@@ -7321,32 +7309,32 @@
     </row>
     <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
-      <c r="B46" s="104" t="s">
+      <c r="B46" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="104"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="66"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="62"/>
       <c r="J46" s="2"/>
       <c r="K46" s="6"/>
       <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
-      <c r="B47" s="104" t="s">
+      <c r="B47" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="82">
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="78">
         <v>42754</v>
       </c>
       <c r="J47" s="2" t="s">
@@ -7357,16 +7345,16 @@
     </row>
     <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
-      <c r="B48" s="104" t="s">
+      <c r="B48" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="82">
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="78">
         <v>42754</v>
       </c>
       <c r="J48" s="2" t="s">
@@ -7377,6 +7365,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B23:H23"/>
@@ -7393,21 +7396,6 @@
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -7424,8 +7412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7437,18 +7425,18 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="117"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
       <c r="I2" s="18" t="s">
         <v>64</v>
       </c>
@@ -7466,14 +7454,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
       <c r="I3" s="19"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -7483,16 +7471,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
       <c r="I4" s="26"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -7500,16 +7488,16 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="122">
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="79">
         <v>42755</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -7520,16 +7508,16 @@
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="122">
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="79">
         <v>42755</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -7540,16 +7528,16 @@
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="122">
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="79">
         <v>42755</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -7560,192 +7548,232 @@
     </row>
     <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="117" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="2"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="2"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="2"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="2"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="2"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="2"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="2"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="2"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="2"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K16" s="6"/>
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="2"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="54" t="s">
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="50" t="s">
         <v>64</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -7759,421 +7787,536 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="72"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="55"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="4"/>
       <c r="K20" s="6"/>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="57"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="53"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="2"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="2"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="2"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K24" s="6"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="2"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K25" s="6"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="2"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K26" s="6"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="2"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K27" s="6"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="2"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="2"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="2"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="2"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K31" s="6"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="2"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K32" s="6"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="2"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="K33" s="6"/>
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="66"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="79"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
       <c r="L34" s="10"/>
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="2"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K35" s="6"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="2"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K36" s="6"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="104" t="s">
+      <c r="B37" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="2"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K37" s="6"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="2"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K38" s="6"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="2"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K39" s="6"/>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="104" t="s">
+      <c r="B40" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="2"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K40" s="6"/>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="104" t="s">
+      <c r="B41" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="2"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K41" s="6"/>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="2"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K42" s="6"/>
       <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="104" t="s">
+      <c r="B43" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="66"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="62"/>
       <c r="J43" s="2"/>
       <c r="K43" s="6"/>
       <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="104" t="s">
+      <c r="B44" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="2"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K44" s="6"/>
       <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
-      <c r="B45" s="104" t="s">
+      <c r="B45" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="104"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="2"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="79">
+        <v>42755</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="K45" s="6"/>
       <c r="L45" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
     <mergeCell ref="B45:H45"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -8190,33 +8333,6 @@
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B44:H44"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B42:H42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -8233,8 +8349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:G20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8248,27 +8364,27 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="78" t="s">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="74" t="s">
         <v>21</v>
       </c>
       <c r="L2" t="s">
@@ -8276,31 +8392,31 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
       <c r="L3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
       <c r="H4" s="25"/>
       <c r="I4" s="4"/>
       <c r="J4" s="6"/>
@@ -8308,228 +8424,272 @@
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="4"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="79">
+        <v>42755</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="J5" s="6"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="4"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="79">
+        <v>42755</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="4"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="79">
+        <v>42755</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="4"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="79">
+        <v>42755</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="4"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="79">
+        <v>42755</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="4"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="79">
+        <v>42755</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="2"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="79">
+        <v>42755</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="2"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="79">
+        <v>42755</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="2"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="79">
+        <v>42755</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="2"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="79">
+        <v>42755</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="J14" s="6"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="2"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="79">
+        <v>42755</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="32"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="2"/>
       <c r="J16" s="6"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="56"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="52"/>
       <c r="I17" s="2"/>
       <c r="J17" s="6"/>
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="56"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="52"/>
       <c r="I18" s="2"/>
       <c r="J18" s="6"/>
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="54" t="s">
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="50" t="s">
         <v>64</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -8543,395 +8703,423 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="72"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="55"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="4"/>
       <c r="J21" s="6"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="57"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="2"/>
       <c r="J22" s="6"/>
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="66"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="2"/>
       <c r="J23" s="6"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="66"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="62"/>
       <c r="I24" s="2"/>
       <c r="J24" s="6"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="66"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="62"/>
       <c r="I25" s="2"/>
       <c r="J25" s="6"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="66"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="62"/>
       <c r="I26" s="2"/>
       <c r="J26" s="6"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="66"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="62"/>
       <c r="I27" s="2"/>
       <c r="J27" s="6"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="66"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="62"/>
       <c r="I28" s="2"/>
       <c r="J28" s="6"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="66"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="62"/>
       <c r="I29" s="2"/>
       <c r="J29" s="6"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="66"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="62"/>
       <c r="I30" s="2"/>
       <c r="J30" s="6"/>
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="66"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="62"/>
       <c r="I31" s="2"/>
       <c r="J31" s="6"/>
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="71"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="67"/>
       <c r="I32" s="2"/>
       <c r="J32" s="6"/>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="71"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="67"/>
       <c r="I33" s="2"/>
       <c r="J33" s="6"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="60"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="56"/>
       <c r="I34" s="2"/>
       <c r="J34" s="6"/>
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="66"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="62"/>
       <c r="I35" s="2"/>
       <c r="J35" s="6"/>
       <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="66"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="62"/>
       <c r="I36" s="2"/>
       <c r="J36" s="6"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="104" t="s">
+      <c r="B37" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="66"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="62"/>
       <c r="I37" s="2"/>
       <c r="J37" s="6"/>
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="66"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="62"/>
       <c r="I38" s="2"/>
       <c r="J38" s="6"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="66"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="62"/>
       <c r="I39" s="2"/>
       <c r="J39" s="6"/>
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="104" t="s">
+      <c r="B40" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="66"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="62"/>
       <c r="I40" s="2"/>
       <c r="J40" s="6"/>
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="104" t="s">
+      <c r="B41" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="66"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="62"/>
       <c r="I41" s="2"/>
       <c r="J41" s="6"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="66"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="62"/>
       <c r="I42" s="2"/>
       <c r="J42" s="6"/>
       <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="104" t="s">
+      <c r="B43" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="66"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="62"/>
       <c r="I43" s="2"/>
       <c r="J43" s="6"/>
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
-      <c r="B44" s="104" t="s">
+      <c r="B44" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="66"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="62"/>
       <c r="I44" s="2"/>
       <c r="J44" s="6"/>
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
-      <c r="B45" s="104" t="s">
+      <c r="B45" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="104"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="66"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="62"/>
       <c r="I45" s="2"/>
       <c r="J45" s="6"/>
       <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:11" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
-      <c r="B46" s="104" t="s">
+      <c r="B46" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="104"/>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="104"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="66"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="62"/>
       <c r="I46" s="2"/>
       <c r="J46" s="6"/>
       <c r="K46" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="B46:G46"/>
@@ -8948,38 +9136,10 @@
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I18 I22:I46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I18 I22:I46">
       <formula1>$L$2:$L$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -9010,26 +9170,26 @@
   <sheetData>
     <row r="1" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="69" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="74" t="s">
         <v>21</v>
       </c>
       <c r="M2" t="s">
@@ -9037,33 +9197,33 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
       <c r="M3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
       <c r="I4" s="25"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -9071,111 +9231,111 @@
     </row>
     <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="52"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="2"/>
       <c r="K5" s="6"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="52"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="2"/>
       <c r="K6" s="6"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="52"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="2"/>
       <c r="K7" s="6"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:13" s="46" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
-      <c r="B8" s="86" t="s">
+    <row r="8" spans="1:13" s="44" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="32"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="30"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
-    </row>
-    <row r="9" spans="1:13" s="46" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
-      <c r="B9" s="86" t="s">
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
+    </row>
+    <row r="9" spans="1:13" s="44" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="32"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
-    </row>
-    <row r="10" spans="1:13" s="46" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="86" t="s">
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+    </row>
+    <row r="10" spans="1:13" s="44" customFormat="1" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="48"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
     </row>
     <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
       <c r="I11" s="15"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
@@ -9183,15 +9343,15 @@
     </row>
     <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="12"/>
       <c r="J12" s="2"/>
       <c r="K12" s="6"/>
@@ -9199,15 +9359,15 @@
     </row>
     <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
       <c r="I13" s="13"/>
       <c r="J13" s="2"/>
       <c r="K13" s="6"/>
@@ -9215,35 +9375,35 @@
     </row>
     <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="33"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="2"/>
       <c r="K14" s="6"/>
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="54" t="s">
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="50" t="s">
         <v>64</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -9257,421 +9417,445 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="72"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="55"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="51"/>
       <c r="J17" s="4"/>
       <c r="K17" s="6"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="57"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="2"/>
       <c r="K18" s="6"/>
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="66"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="62"/>
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="66"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="62"/>
       <c r="J20" s="2"/>
       <c r="K20" s="6"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="66"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="62"/>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="66"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="62"/>
       <c r="J22" s="2"/>
       <c r="K22" s="6"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="66"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="2"/>
       <c r="K23" s="6"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="66"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="2"/>
       <c r="K24" s="6"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="66"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="62"/>
       <c r="J25" s="2"/>
       <c r="K25" s="6"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="66"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="62"/>
       <c r="J26" s="2"/>
       <c r="K26" s="6"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="66"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="62"/>
       <c r="J27" s="2"/>
       <c r="K27" s="6"/>
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="71"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="67"/>
       <c r="J28" s="2"/>
       <c r="K28" s="6"/>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="71"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="67"/>
       <c r="J29" s="2"/>
       <c r="K29" s="6"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="114" t="s">
+      <c r="B30" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="60"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="56"/>
       <c r="J30" s="2"/>
       <c r="K30" s="6"/>
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="66"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="62"/>
       <c r="J31" s="2"/>
       <c r="K31" s="6"/>
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="66"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="2"/>
       <c r="K32" s="6"/>
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="66"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="62"/>
       <c r="J33" s="2"/>
       <c r="K33" s="6"/>
       <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="66"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="2"/>
       <c r="K34" s="6"/>
       <c r="L34" s="9"/>
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="66"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="62"/>
       <c r="J35" s="2"/>
       <c r="K35" s="6"/>
       <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="66"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="62"/>
       <c r="J36" s="2"/>
       <c r="K36" s="6"/>
       <c r="L36" s="9"/>
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
-      <c r="B37" s="104" t="s">
+      <c r="B37" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="66"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="62"/>
       <c r="J37" s="2"/>
       <c r="K37" s="6"/>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="66"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="62"/>
       <c r="J38" s="2"/>
       <c r="K38" s="6"/>
       <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="66"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="62"/>
       <c r="J39" s="2"/>
       <c r="K39" s="6"/>
       <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
-      <c r="B40" s="104" t="s">
+      <c r="B40" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="66"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="62"/>
       <c r="J40" s="2"/>
       <c r="K40" s="6"/>
       <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
-      <c r="B41" s="104" t="s">
+      <c r="B41" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="104"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="66"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="62"/>
       <c r="J41" s="2"/>
       <c r="K41" s="6"/>
       <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="66"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="62"/>
       <c r="J42" s="2"/>
       <c r="K42" s="6"/>
       <c r="L42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B42:H42"/>
@@ -9688,30 +9872,6 @@
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
